--- a/2023/SAFE/other/HistTrawlFit.xlsx
+++ b/2023/SAFE/other/HistTrawlFit.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA - PH Stuff\2022 Assmnts\PCod\goa_pcod\SAFE\Other materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA - PH Stuff\Asmnts\goa_pcod\2023\safe\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="0" windowWidth="23040" windowHeight="11240"/>
+    <workbookView xWindow="2505" yWindow="0" windowWidth="23040" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>BTS</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>2022 M19.1a</t>
+  </si>
+  <si>
+    <t>2023 M19.1b</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -147,6 +150,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -221,10 +225,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$E$8:$E$45</c:f>
+                <c:f>Sheet1!$E$8:$E$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="38"/>
+                  <c:ptCount val="40"/>
                   <c:pt idx="0">
                     <c:v>103670.70336</c:v>
                   </c:pt>
@@ -276,15 +280,18 @@
                   <c:pt idx="37">
                     <c:v>30082.926719999999</c:v>
                   </c:pt>
+                  <c:pt idx="39">
+                    <c:v>57093.200639999995</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$E$8:$E$45</c:f>
+                <c:f>Sheet1!$E$8:$E$47</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="38"/>
+                  <c:ptCount val="40"/>
                   <c:pt idx="0">
                     <c:v>103670.70336</c:v>
                   </c:pt>
@@ -336,6 +343,9 @@
                   <c:pt idx="37">
                     <c:v>30082.926719999999</c:v>
                   </c:pt>
+                  <c:pt idx="39">
+                    <c:v>57093.200639999995</c:v>
+                  </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
@@ -355,10 +365,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$47</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -478,16 +488,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$45</c:f>
+              <c:f>Sheet1!$C$8:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0" formatCode="#,##0">
                   <c:v>550971</c:v>
                 </c:pt>
@@ -538,6 +551,9 @@
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00">
                   <c:v>174414</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="#,##0">
+                  <c:v>231184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -581,10 +597,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$42</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -689,6 +705,24 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,10 +877,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$42</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -951,6 +985,24 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1108,10 +1160,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$44</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -1222,6 +1274,18 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1386,10 +1450,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$44</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -1500,6 +1564,18 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,10 +1736,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$45</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -1777,6 +1853,15 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,10 +2025,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$46</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -2060,6 +2145,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,10 +2326,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$47</c:f>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1984</c:v>
                 </c:pt>
@@ -2358,6 +2449,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,6 +2589,319 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5EF7-49B6-9D97-CE9955104D33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2023 M19.1b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$8:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>530505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>587423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>647087</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>698761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>724226</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>733137</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>724593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>694233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>673111</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>647461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>630312</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>601250</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>541257</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>489569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>436698</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>391753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340653</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>311814</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>307313</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>300217</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>286487</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>263066</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>251563</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>258308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>288235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>329541</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>382329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>404507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>411061</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>433983</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>500671</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>394061</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>277065</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>177128</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>156630</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>168218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>176942</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186120</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>180883</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173300</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>184242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F1B-4AB8-A52D-A6D7EFEA4609}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2513,7 +2920,7 @@
         <c:axId val="5230120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2023"/>
+          <c:max val="2024.5"/>
           <c:min val="1983"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2666,10 +3073,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.7089143681595534E-2"/>
-          <c:y val="0.91036900923478148"/>
-          <c:w val="0.91274478742831067"/>
-          <c:h val="8.9630990765218549E-2"/>
+          <c:x val="7.5882017489301401E-2"/>
+          <c:y val="0.87603157388644726"/>
+          <c:w val="0.92156250713989141"/>
+          <c:h val="0.11790888130465021"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3283,7 +3690,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3294,7 +3701,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8660984" cy="6282336"/>
+    <xdr:ext cx="8666098" cy="6287601"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -3582,38 +3989,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O55"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" style="2" customWidth="1"/>
-    <col min="9" max="13" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>0</v>
       </c>
@@ -3644,8 +4051,11 @@
       <c r="M7" t="s">
         <v>4</v>
       </c>
+      <c r="N7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1984</v>
       </c>
@@ -3683,10 +4093,12 @@
       <c r="M8">
         <v>570766</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8">
+        <v>530505</v>
+      </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1985</v>
       </c>
@@ -3714,8 +4126,11 @@
       <c r="M9">
         <v>629649</v>
       </c>
+      <c r="N9">
+        <v>587423</v>
+      </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1986</v>
       </c>
@@ -3743,8 +4158,11 @@
       <c r="M10">
         <v>688282</v>
       </c>
+      <c r="N10">
+        <v>647087</v>
+      </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1987</v>
       </c>
@@ -3755,7 +4173,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:E45" si="0">D11*1.96*C11</f>
+        <f t="shared" ref="E11:E47" si="0">D11*1.96*C11</f>
         <v>65804.834199999998</v>
       </c>
       <c r="F11" s="1">
@@ -3782,8 +4200,11 @@
       <c r="M11">
         <v>737809</v>
       </c>
+      <c r="N11">
+        <v>698761</v>
+      </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1988</v>
       </c>
@@ -3811,8 +4232,11 @@
       <c r="M12">
         <v>758800</v>
       </c>
+      <c r="N12">
+        <v>724226</v>
+      </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1989</v>
       </c>
@@ -3840,8 +4264,11 @@
       <c r="M13">
         <v>761416</v>
       </c>
+      <c r="N13">
+        <v>733137</v>
+      </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1990</v>
       </c>
@@ -3879,8 +4306,11 @@
       <c r="M14">
         <v>746639</v>
       </c>
+      <c r="N14">
+        <v>724593</v>
+      </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1991</v>
       </c>
@@ -3908,8 +4338,11 @@
       <c r="M15">
         <v>713259</v>
       </c>
+      <c r="N15">
+        <v>694233</v>
+      </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1992</v>
       </c>
@@ -3937,8 +4370,11 @@
       <c r="M16">
         <v>691923</v>
       </c>
+      <c r="N16">
+        <v>673111</v>
+      </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1993</v>
       </c>
@@ -3976,8 +4412,11 @@
       <c r="M17">
         <v>666335</v>
       </c>
+      <c r="N17">
+        <v>647461</v>
+      </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1994</v>
       </c>
@@ -4005,8 +4444,11 @@
       <c r="M18">
         <v>646758</v>
       </c>
+      <c r="N18">
+        <v>630312</v>
+      </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1995</v>
       </c>
@@ -4034,8 +4476,11 @@
       <c r="M19">
         <v>612981</v>
       </c>
+      <c r="N19">
+        <v>601250</v>
+      </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1996</v>
       </c>
@@ -4073,8 +4518,11 @@
       <c r="M20">
         <v>548208</v>
       </c>
+      <c r="N20">
+        <v>541257</v>
+      </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1997</v>
       </c>
@@ -4102,8 +4550,11 @@
       <c r="M21">
         <v>493721</v>
       </c>
+      <c r="N21">
+        <v>489569</v>
+      </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1998</v>
       </c>
@@ -4131,8 +4582,11 @@
       <c r="M22">
         <v>438935</v>
       </c>
+      <c r="N22">
+        <v>436698</v>
+      </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1999</v>
       </c>
@@ -4170,8 +4624,11 @@
       <c r="M23">
         <v>392705</v>
       </c>
+      <c r="N23">
+        <v>391753</v>
+      </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>2000</v>
       </c>
@@ -4199,8 +4656,11 @@
       <c r="M24">
         <v>340710</v>
       </c>
+      <c r="N24">
+        <v>340653</v>
+      </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>2001</v>
       </c>
@@ -4238,8 +4698,11 @@
       <c r="M25">
         <v>311860</v>
       </c>
+      <c r="N25">
+        <v>311814</v>
+      </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>2002</v>
       </c>
@@ -4267,8 +4730,11 @@
       <c r="M26">
         <v>307981</v>
       </c>
+      <c r="N26">
+        <v>307313</v>
+      </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2003</v>
       </c>
@@ -4306,8 +4772,11 @@
       <c r="M27">
         <v>300900</v>
       </c>
+      <c r="N27">
+        <v>300217</v>
+      </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2004</v>
       </c>
@@ -4335,8 +4804,11 @@
       <c r="M28">
         <v>285813</v>
       </c>
+      <c r="N28">
+        <v>286487</v>
+      </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>2005</v>
       </c>
@@ -4374,8 +4846,11 @@
       <c r="M29">
         <v>260949</v>
       </c>
+      <c r="N29">
+        <v>263066</v>
+      </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>2006</v>
       </c>
@@ -4403,8 +4878,11 @@
       <c r="M30">
         <v>248789</v>
       </c>
+      <c r="N30">
+        <v>251563</v>
+      </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>2007</v>
       </c>
@@ -4442,8 +4920,11 @@
       <c r="M31">
         <v>256856</v>
       </c>
+      <c r="N31">
+        <v>258308</v>
+      </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>2008</v>
       </c>
@@ -4471,8 +4952,11 @@
       <c r="M32">
         <v>290058</v>
       </c>
+      <c r="N32">
+        <v>288235</v>
+      </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>2009</v>
       </c>
@@ -4510,8 +4994,11 @@
       <c r="M33">
         <v>333418</v>
       </c>
+      <c r="N33">
+        <v>329541</v>
+      </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2010</v>
       </c>
@@ -4539,8 +5026,11 @@
       <c r="M34">
         <v>386732</v>
       </c>
+      <c r="N34">
+        <v>382329</v>
+      </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>2011</v>
       </c>
@@ -4578,8 +5068,11 @@
       <c r="M35">
         <v>407856</v>
       </c>
+      <c r="N35">
+        <v>404507</v>
+      </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>2012</v>
       </c>
@@ -4607,8 +5100,11 @@
       <c r="M36">
         <v>414540</v>
       </c>
+      <c r="N36">
+        <v>411061</v>
+      </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2013</v>
       </c>
@@ -4646,8 +5142,11 @@
       <c r="M37">
         <v>441572</v>
       </c>
+      <c r="N37">
+        <v>433983</v>
+      </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>2014</v>
       </c>
@@ -4675,8 +5174,11 @@
       <c r="M38">
         <v>518159</v>
       </c>
+      <c r="N38">
+        <v>500671</v>
+      </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>2015</v>
       </c>
@@ -4714,8 +5216,11 @@
       <c r="M39">
         <v>400775</v>
       </c>
+      <c r="N39">
+        <v>394061</v>
+      </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2016</v>
       </c>
@@ -4743,8 +5248,11 @@
       <c r="M40">
         <v>272627</v>
       </c>
+      <c r="N40">
+        <v>277065</v>
+      </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>2017</v>
       </c>
@@ -4782,8 +5290,11 @@
       <c r="M41">
         <v>166160</v>
       </c>
+      <c r="N41">
+        <v>177128</v>
+      </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2018</v>
       </c>
@@ -4805,8 +5316,11 @@
       <c r="M42">
         <v>143409</v>
       </c>
+      <c r="N42">
+        <v>156630</v>
+      </c>
     </row>
-    <row r="43" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>2019</v>
       </c>
@@ -4836,8 +5350,11 @@
       <c r="M43">
         <v>152663</v>
       </c>
+      <c r="N43">
+        <v>168218</v>
+      </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="5">
         <v>2020</v>
       </c>
@@ -4861,8 +5378,11 @@
       <c r="M44">
         <v>158779</v>
       </c>
+      <c r="N44">
+        <v>176942</v>
+      </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="5">
         <v>2021</v>
       </c>
@@ -4888,8 +5408,11 @@
       <c r="M45">
         <v>165795</v>
       </c>
+      <c r="N45">
+        <v>186120</v>
+      </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="5">
         <v>2022</v>
       </c>
@@ -4905,14 +5428,24 @@
       <c r="M46">
         <v>163954</v>
       </c>
+      <c r="N46">
+        <v>180883</v>
+      </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="5">
         <v>2023</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="C47" s="8">
+        <v>231184</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0.126</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>57093.200639999995</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="7"/>
@@ -4920,8 +5453,14 @@
       <c r="M47">
         <v>163477</v>
       </c>
+      <c r="N47">
+        <v>173300</v>
+      </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="5">
+        <v>2024</v>
+      </c>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -4931,8 +5470,11 @@
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
+      <c r="N48">
+        <v>184242</v>
+      </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -4943,7 +5485,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -4954,7 +5496,7 @@
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -4964,7 +5506,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -4974,7 +5516,7 @@
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -4982,7 +5524,7 @@
       <c r="H53" s="5"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -4991,7 +5533,7 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
